--- a/TableDesignDocument.xlsx
+++ b/TableDesignDocument.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F60401-9C8C-412B-A495-649392B00E2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C2C91A-95BE-41E8-B9A2-6EE8D308DB42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="test_table" sheetId="3" r:id="rId2"/>
+    <sheet name="test_table2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -353,10 +354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(8,2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>encode delta32k</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,6 +384,14 @@
     <rPh sb="2" eb="3">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test_table2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -640,7 +645,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -730,6 +735,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1390,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1411,60 +1428,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="48"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="52"/>
       <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="48"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="48"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="48"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -1497,7 +1514,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1535,17 +1552,17 @@
         <v>7</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="59" t="s">
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -1568,13 +1585,13 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="71"/>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1600,15 +1617,15 @@
         <v>14</v>
       </c>
       <c r="J7" s="20"/>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="57"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1634,13 +1651,13 @@
         <v>16</v>
       </c>
       <c r="J8" s="20"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="57"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="61"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1664,13 +1681,13 @@
         <v>17</v>
       </c>
       <c r="J9" s="20"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1698,13 +1715,13 @@
         <v>18</v>
       </c>
       <c r="J10" s="20"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="61"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1732,13 +1749,13 @@
         <v>19</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="61"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1760,15 +1777,15 @@
         <v>61</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="20"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
       <c r="N12" s="26"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
@@ -1796,9 +1813,9 @@
         <v>21</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
       <c r="N13" s="26"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
@@ -1822,13 +1839,13 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="68" t="s">
+      <c r="I14" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="69"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
       <c r="N14" s="26"/>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
@@ -1852,15 +1869,15 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
       <c r="N15" s="26"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
@@ -1884,15 +1901,15 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
       <c r="N16" s="26"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
@@ -1916,13 +1933,13 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
       <c r="N17" s="26"/>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
@@ -1946,13 +1963,13 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
       <c r="N18" s="26"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
@@ -1970,19 +1987,19 @@
         <v>62</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="26"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
@@ -2005,13 +2022,13 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
       <c r="N20" s="26"/>
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
@@ -2034,11 +2051,11 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="26"/>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
@@ -2055,11 +2072,11 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
       <c r="N22" s="26"/>
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
@@ -2076,11 +2093,11 @@
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
       <c r="N23" s="26"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
@@ -2097,11 +2114,11 @@
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
       <c r="N24" s="26"/>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
@@ -2118,11 +2135,11 @@
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="26"/>
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
@@ -2139,11 +2156,11 @@
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="26"/>
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
@@ -2160,11 +2177,11 @@
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
       <c r="N27" s="26"/>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2228,4 +2245,848 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C42D045-9D78-463F-8340-6EF5EFAD7E98}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="53"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="52"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="52"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="22">
+        <v>40</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="22">
+        <v>40</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="22">
+        <v>40</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="22">
+        <v>40</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>7</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="25">
+        <v>40</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>8</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="18">
+        <v>10</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="29">
+        <v>100</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="73"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>12</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="22">
+        <v>20</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>13</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="22">
+        <v>20</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>14</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>15</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="22">
+        <v>15</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>17</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>18</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>19</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>20</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>21</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="28"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>22</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>